--- a/modules/merchant/merchant_import_demo.xlsx
+++ b/modules/merchant/merchant_import_demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>Merchant Name</t>
   </si>
@@ -206,6 +206,42 @@
   </si>
   <si>
     <t>test1@168.com</t>
+  </si>
+  <si>
+    <t>Test Merchant7</t>
+  </si>
+  <si>
+    <t>12345678@169.com</t>
+  </si>
+  <si>
+    <t>123462</t>
+  </si>
+  <si>
+    <t>12351</t>
+  </si>
+  <si>
+    <t>Test7</t>
+  </si>
+  <si>
+    <t>test1@169.com</t>
+  </si>
+  <si>
+    <t>Test Merchant8</t>
+  </si>
+  <si>
+    <t>12345678@170.com</t>
+  </si>
+  <si>
+    <t>123463</t>
+  </si>
+  <si>
+    <t>12352</t>
+  </si>
+  <si>
+    <t>Test8</t>
+  </si>
+  <si>
+    <t>test1@170.com</t>
   </si>
 </sst>
 </file>
@@ -214,9 +250,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -243,7 +279,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,38 +353,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,6 +377,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -311,22 +393,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -334,36 +400,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -380,19 +416,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,157 +590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,31 +623,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,31 +684,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -676,124 +712,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -802,19 +838,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1150,13 +1186,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="22.0178571428571" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.3660714285714" style="1" customWidth="1"/>
@@ -1508,6 +1544,100 @@
         <v>28</v>
       </c>
     </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12345684</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>12345685</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="12345678@163.com"/>
@@ -1522,6 +1652,10 @@
     <hyperlink ref="N5" r:id="rId2" display="test1@166.com"/>
     <hyperlink ref="N6" r:id="rId2" display="test1@167.com"/>
     <hyperlink ref="N7" r:id="rId2" display="test1@168.com"/>
+    <hyperlink ref="D8" r:id="rId1" display="12345678@169.com"/>
+    <hyperlink ref="D9" r:id="rId1" display="12345678@170.com"/>
+    <hyperlink ref="N8" r:id="rId2" display="test1@169.com"/>
+    <hyperlink ref="N9" r:id="rId2" display="test1@170.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
